--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL COURSES\6th semester\EAD\PROJECTS\EAD Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC468B6E-1059-45E4-A416-2421BE07F5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA4A084-51A9-4583-B590-168B44057BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9AB1171D-46C7-4A0F-A8E3-6ACD2780A399}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>habib11@gmail.com</t>
-  </si>
-  <si>
     <t>Clerk</t>
   </si>
   <si>
-    <t xml:space="preserve">habib@gmail.com </t>
+    <t xml:space="preserve">zain@gmail.com </t>
+  </si>
+  <si>
+    <t>hassan11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,12 +411,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -433,7 +433,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1234</v>
@@ -444,13 +444,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>123244</v>
+        <v>5544</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
